--- a/web-scraping/files/results.xlsxresult.xlsx
+++ b/web-scraping/files/results.xlsxresult.xlsx
@@ -509,64 +509,20 @@
           <t>The Matrix</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>certified-fresh</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Neo (Keanu Reeves) believes that Morpheus (Laurence Fishburne), an elusive figure considered to be the most dangerous man alive, can answer his question -- What is the Matrix? Neo is contacted by Trinity (Carrie-Anne Moss), a beautiful stranger who leads him into an underworld where he meets Morpheus. They fight a brutal battle for their lives against a cadre of viciously intelligent secret agents. It is a truth that could cost Neo something more precious than his life.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sci-fi/Action</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>The Matrix does a good job of repackaging Baudrillard’s critique of hyperreality, as well as riffing on Christ, Marx, Lewis Carroll, and L. Frank Baum.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>The Matrix still stands up as a fiercely exciting and discombobulating futurist drama, which pioneered breathtaking "bullet-time" action sequences inspired by Asian martial arts.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Neo offers Reeves the perfect combination of Ted Theodore Logan's curiosity and wonder, Johnny Utah's earnestness and the badassedness of Jack Traven.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>A technologically stunning movie that furthers the genre and features crowd-pleasing performances to go with the frequent scenes of gunplay and violence.</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Extremely violent, extremely preposterous, extremely entertaining, The Matrix succeeds at two extremely difficult tasks: as a vast, exciting virtual-reality movie and as a defibrillator for Keanu Reeves' big screen career.</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>No Exact Match Found</t>
         </is>
       </c>
     </row>
@@ -649,64 +605,20 @@
           <t>Jumanji</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>rotten</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A magical board game unleashes a world of adventure on siblings Peter (Bradley Pierce) and Judy Shepherd (Kirsten Dunst). While exploring an old mansion, the youngsters find a curious, jungle-themed game called Jumanji in the attic. When they start playing, they free Alan Parrish (Robin Williams), who's been stuck in the game's inner world for decades. If they win Jumanji, the kids can free Alan for good -- but that means braving giant bugs, ill-mannered monkeys and even stampeding rhinos!</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kids &amp; family/Fantasy</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>The technology both overwhelms the human cast and stalls the narrative drive. Even Williams's manic energy finally flags.</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>The humans are wooden, the computer-animals have that floating, jerky gait of animated fauna.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>The filmmakers... re-create safari beasts with wizardly finesse but can’t think of anything to do with them but zap you.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>What’s missing is a soul for this mechanical marvel.</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Hollow, but very spectacular.</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>No Exact Match Found</t>
         </is>
       </c>
     </row>
@@ -719,64 +631,20 @@
           <t>The Night Train to Kathmandu</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>An American girl (Milla Jovovich) meets a prince (Eddie Castrodad) from a secret kingdom sought by a professor (Pernell Roberts) in Nepal.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Adventure</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>No Exact Match Found</t>
         </is>
       </c>
     </row>
@@ -815,64 +683,20 @@
           <t>Beyond the Dream</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>The true story of two high school teachers who started a program to take students from El Paso on a journey to visit Ivy League schools in the east coast, to inspire them and help them realize what they can achieve.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Documentary</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>There is a gem of inspiration at the film’s core, but the slow pacing and lack of story undermine it.</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Beyond the Dream is a lovely depiction of something very real and mostly unheard of. Sure, inspirational stories like these are common but they don’t necessarily have happy endings. This one does and it will lift you up.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>A great reminder that there are opportunities out there for future students who may not know where to start their college path.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>No Exact Match Found</t>
         </is>
       </c>
     </row>
